--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지11.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06137572-D721-4F75-9D67-BC2401393DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CDFB4-9E8F-403C-BC04-3A7C5F96A4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1630">
   <si>
     <t>Time</t>
   </si>
@@ -4924,6 +4924,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5295,21 +5298,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="57.625" customWidth="1"/>
+    <col min="2" max="2" width="57.640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5323,10 +5325,10 @@
         <v>1628</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5761,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -5776,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -6076,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -6202,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -6580,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -6739,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6940,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -7075,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -7180,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -7195,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -7210,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -7333,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7456,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7531,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -7714,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -7837,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -7945,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -8020,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -8035,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -8140,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -8230,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>379</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -8275,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>385</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -8320,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>391</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>397</v>
       </c>
@@ -8398,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -8428,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>403</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -8473,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>409</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>411</v>
       </c>
@@ -8506,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>413</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>415</v>
       </c>
@@ -8536,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -8644,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -8659,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -8689,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>439</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -8749,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -8779,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>451</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -8824,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -8932,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -8992,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>479</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>481</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>483</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>485</v>
       </c>
@@ -9085,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>487</v>
       </c>
@@ -9100,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>489</v>
       </c>
@@ -9115,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>491</v>
       </c>
@@ -9130,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>493</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -9313,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>517</v>
       </c>
@@ -9328,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>521</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>525</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>527</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>529</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>531</v>
       </c>
@@ -9436,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>533</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>537</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>539</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>543</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>545</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>549</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>551</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>553</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -9622,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -9637,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -9652,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -9682,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -9697,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -9712,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -9727,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>571</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>573</v>
       </c>
@@ -9757,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>575</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>577</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>579</v>
       </c>
@@ -9802,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>581</v>
       </c>
@@ -9817,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>583</v>
       </c>
@@ -9832,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>585</v>
       </c>
@@ -9847,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>587</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>591</v>
       </c>
@@ -9892,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>593</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>595</v>
       </c>
@@ -9922,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>601</v>
       </c>
@@ -9967,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>605</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>607</v>
       </c>
@@ -10012,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>609</v>
       </c>
@@ -10027,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>611</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>613</v>
       </c>
@@ -10057,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>615</v>
       </c>
@@ -10072,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -10087,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -10102,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>621</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>623</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>625</v>
       </c>
@@ -10147,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -10162,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>629</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>631</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>633</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>635</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>637</v>
       </c>
@@ -10240,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>639</v>
       </c>
@@ -10255,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>641</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>643</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>645</v>
       </c>
@@ -10300,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>647</v>
       </c>
@@ -10315,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>649</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>651</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>653</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>655</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>657</v>
       </c>
@@ -10390,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>659</v>
       </c>
@@ -10405,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>661</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>663</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>665</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>667</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>669</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>671</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>673</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>675</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>677</v>
       </c>
@@ -10540,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>679</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>681</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>683</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>687</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>689</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>691</v>
       </c>
@@ -10651,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>693</v>
       </c>
@@ -10666,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>695</v>
       </c>
@@ -10681,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>697</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>699</v>
       </c>
@@ -10711,7 +10713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>701</v>
       </c>
@@ -10726,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>703</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>705</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>709</v>
       </c>
@@ -10786,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>713</v>
       </c>
@@ -10816,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>715</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>717</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -10861,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>721</v>
       </c>
@@ -10879,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>723</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>727</v>
       </c>
@@ -10924,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>729</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>731</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>733</v>
       </c>
@@ -10975,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>735</v>
       </c>
@@ -10990,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>737</v>
       </c>
@@ -11005,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>739</v>
       </c>
@@ -11020,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>745</v>
       </c>
@@ -11065,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>747</v>
       </c>
@@ -11083,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>749</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>753</v>
       </c>
@@ -11131,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>755</v>
       </c>
@@ -11146,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>757</v>
       </c>
@@ -11161,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>759</v>
       </c>
@@ -11176,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>763</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>764</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>766</v>
       </c>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>768</v>
       </c>
@@ -11251,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -11269,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>772</v>
       </c>
@@ -11284,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>774</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>776</v>
       </c>
@@ -11314,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>778</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>780</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>782</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>784</v>
       </c>
@@ -11374,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>786</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>788</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>790</v>
       </c>
@@ -11419,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>792</v>
       </c>
@@ -11434,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>794</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>796</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>798</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>800</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>802</v>
       </c>
@@ -11509,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>804</v>
       </c>
@@ -11524,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>806</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>808</v>
       </c>
@@ -11554,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>810</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>812</v>
       </c>
@@ -11587,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>814</v>
       </c>
@@ -11602,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>816</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>818</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>820</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>822</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>824</v>
       </c>
@@ -11683,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>828</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>830</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>832</v>
       </c>
@@ -11743,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>834</v>
       </c>
@@ -11758,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>836</v>
       </c>
@@ -11773,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>838</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>840</v>
       </c>
@@ -11806,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>842</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>844</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>846</v>
       </c>
@@ -11851,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>848</v>
       </c>
@@ -11866,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>850</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>852</v>
       </c>
@@ -11896,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>854</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>856</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>858</v>
       </c>
@@ -11944,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>860</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>862</v>
       </c>
@@ -11974,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>864</v>
       </c>
@@ -11989,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>866</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>868</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -12037,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>872</v>
       </c>
@@ -12052,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>874</v>
       </c>
@@ -12067,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>876</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>878</v>
       </c>
@@ -12097,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>880</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>882</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>884</v>
       </c>
@@ -12142,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>886</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>888</v>
       </c>
@@ -12172,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>890</v>
       </c>
@@ -12187,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>892</v>
       </c>
@@ -12202,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>894</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>896</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>898</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>900</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>902</v>
       </c>
@@ -12280,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>904</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>906</v>
       </c>
@@ -12310,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>908</v>
       </c>
@@ -12325,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>910</v>
       </c>
@@ -12340,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>912</v>
       </c>
@@ -12355,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>914</v>
       </c>
@@ -12370,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>916</v>
       </c>
@@ -12385,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>918</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>920</v>
       </c>
@@ -12415,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>922</v>
       </c>
@@ -12433,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>924</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>926</v>
       </c>
@@ -12466,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>928</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>930</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>932</v>
       </c>
@@ -12511,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>934</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>936</v>
       </c>
@@ -12541,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>938</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>940</v>
       </c>
@@ -12571,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>942</v>
       </c>
@@ -12589,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>944</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>946</v>
       </c>
@@ -12622,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>948</v>
       </c>
@@ -12637,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>950</v>
       </c>
@@ -12652,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>952</v>
       </c>
@@ -12667,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>954</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>956</v>
       </c>
@@ -12697,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>958</v>
       </c>
@@ -12712,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>960</v>
       </c>
@@ -12727,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>962</v>
       </c>
@@ -12742,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>964</v>
       </c>
@@ -12757,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>966</v>
       </c>
@@ -12772,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>968</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>970</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>972</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>974</v>
       </c>
@@ -12835,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>975</v>
       </c>
@@ -12850,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>977</v>
       </c>
@@ -12865,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>979</v>
       </c>
@@ -12880,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>981</v>
       </c>
@@ -12895,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>983</v>
       </c>
@@ -12910,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>985</v>
       </c>
@@ -12925,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>987</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>989</v>
       </c>
@@ -12958,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>991</v>
       </c>
@@ -12973,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>993</v>
       </c>
@@ -12988,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>995</v>
       </c>
@@ -13006,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>997</v>
       </c>
@@ -13021,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>999</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1001</v>
       </c>
@@ -13054,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1003</v>
       </c>
@@ -13069,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1005</v>
       </c>
@@ -13084,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1007</v>
       </c>
@@ -13099,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -13114,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1011</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1013</v>
       </c>
@@ -13144,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1015</v>
       </c>
@@ -13159,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1017</v>
       </c>
@@ -13174,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1019</v>
       </c>
@@ -13189,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1021</v>
       </c>
@@ -13204,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1023</v>
       </c>
@@ -13219,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1025</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1027</v>
       </c>
@@ -13249,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1029</v>
       </c>
@@ -13267,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1031</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1033</v>
       </c>
@@ -13297,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1035</v>
       </c>
@@ -13312,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1037</v>
       </c>
@@ -13327,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1039</v>
       </c>
@@ -13345,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1040</v>
       </c>
@@ -13360,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1042</v>
       </c>
@@ -13375,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1044</v>
       </c>
@@ -13390,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1046</v>
       </c>
@@ -13405,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1048</v>
       </c>
@@ -13420,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1050</v>
       </c>
@@ -13435,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1052</v>
       </c>
@@ -13450,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1054</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1056</v>
       </c>
@@ -13480,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1058</v>
       </c>
@@ -13495,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1059</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1061</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1063</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1065</v>
       </c>
@@ -13558,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1067</v>
       </c>
@@ -13573,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1069</v>
       </c>
@@ -13588,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1071</v>
       </c>
@@ -13603,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1073</v>
       </c>
@@ -13618,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1075</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1077</v>
       </c>
@@ -13651,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1079</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1081</v>
       </c>
@@ -13681,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1083</v>
       </c>
@@ -13696,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1085</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1087</v>
       </c>
@@ -13726,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1089</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1091</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1093</v>
       </c>
@@ -13771,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1095</v>
       </c>
@@ -13786,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1097</v>
       </c>
@@ -13801,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1099</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1101</v>
       </c>
@@ -13834,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1103</v>
       </c>
@@ -13852,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1105</v>
       </c>
@@ -13867,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1107</v>
       </c>
@@ -13882,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1109</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1111</v>
       </c>
@@ -13912,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1113</v>
       </c>
@@ -13927,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1115</v>
       </c>
@@ -13942,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1117</v>
       </c>
@@ -13957,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1119</v>
       </c>
@@ -13972,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1121</v>
       </c>
@@ -13987,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1123</v>
       </c>
@@ -14002,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1125</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1127</v>
       </c>
@@ -14032,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1129</v>
       </c>
@@ -14047,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1131</v>
       </c>
@@ -14062,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1133</v>
       </c>
@@ -14077,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1135</v>
       </c>
@@ -14092,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1137</v>
       </c>
@@ -14107,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1139</v>
       </c>
@@ -14122,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1141</v>
       </c>
@@ -14137,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1143</v>
       </c>
@@ -14152,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1145</v>
       </c>
@@ -14167,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1147</v>
       </c>
@@ -14182,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1149</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1151</v>
       </c>
@@ -14212,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1153</v>
       </c>
@@ -14227,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1155</v>
       </c>
@@ -14242,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1157</v>
       </c>
@@ -14257,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1159</v>
       </c>
@@ -14272,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1161</v>
       </c>
@@ -14287,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1163</v>
       </c>
@@ -14302,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1165</v>
       </c>
@@ -14317,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1167</v>
       </c>
@@ -14332,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1169</v>
       </c>
@@ -14347,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1171</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1173</v>
       </c>
@@ -14377,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1175</v>
       </c>
@@ -14392,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1177</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1179</v>
       </c>
@@ -14422,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1181</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1183</v>
       </c>
@@ -14452,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1185</v>
       </c>
@@ -14467,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1187</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1189</v>
       </c>
@@ -14497,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1191</v>
       </c>
@@ -14512,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1193</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1195</v>
       </c>
@@ -14542,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1197</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1199</v>
       </c>
@@ -14572,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1201</v>
       </c>
@@ -14587,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1203</v>
       </c>
@@ -14602,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1205</v>
       </c>
@@ -14617,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1207</v>
       </c>
@@ -14632,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1209</v>
       </c>
@@ -14647,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1211</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1213</v>
       </c>
@@ -14677,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1215</v>
       </c>
@@ -14692,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1217</v>
       </c>
@@ -14710,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1219</v>
       </c>
@@ -14725,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1221</v>
       </c>
@@ -14740,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1223</v>
       </c>
@@ -14755,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1225</v>
       </c>
@@ -14770,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1227</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1229</v>
       </c>
@@ -14800,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1231</v>
       </c>
@@ -14815,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1233</v>
       </c>
@@ -14830,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1235</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1237</v>
       </c>
@@ -14860,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1239</v>
       </c>
@@ -14875,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1241</v>
       </c>
@@ -14890,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1243</v>
       </c>
@@ -14905,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1245</v>
       </c>
@@ -14920,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1247</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1249</v>
       </c>
@@ -14950,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1251</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1253</v>
       </c>
@@ -14980,7 +14982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1255</v>
       </c>
@@ -14995,7 +14997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1257</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1259</v>
       </c>
@@ -15025,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1261</v>
       </c>
@@ -15040,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1263</v>
       </c>
@@ -15055,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1265</v>
       </c>
@@ -15073,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1267</v>
       </c>
@@ -15088,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1269</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1271</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1273</v>
       </c>
@@ -15139,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1275</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1277</v>
       </c>
@@ -15169,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1279</v>
       </c>
@@ -15184,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1281</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1283</v>
       </c>
@@ -15214,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1285</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1287</v>
       </c>
@@ -15247,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1289</v>
       </c>
@@ -15262,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1291</v>
       </c>
@@ -15280,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1293</v>
       </c>
@@ -15295,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1295</v>
       </c>
@@ -15310,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1297</v>
       </c>
@@ -15325,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1299</v>
       </c>
@@ -15340,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1301</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1303</v>
       </c>
@@ -15370,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1305</v>
       </c>
@@ -15385,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1307</v>
       </c>
@@ -15403,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1309</v>
       </c>
@@ -15418,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1311</v>
       </c>
@@ -15436,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1313</v>
       </c>
@@ -15451,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1315</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1317</v>
       </c>
@@ -15484,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1319</v>
       </c>
@@ -15499,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1321</v>
       </c>
@@ -15517,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1323</v>
       </c>
@@ -15532,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1325</v>
       </c>
@@ -15547,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1326</v>
       </c>
@@ -15562,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1328</v>
       </c>
@@ -15577,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1330</v>
       </c>
@@ -15592,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1332</v>
       </c>
@@ -15610,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1334</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1336</v>
       </c>
@@ -15640,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1338</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1340</v>
       </c>
@@ -15670,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1342</v>
       </c>
@@ -15685,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1344</v>
       </c>
@@ -15700,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1346</v>
       </c>
@@ -15715,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1348</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1350</v>
       </c>
@@ -15745,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1352</v>
       </c>
@@ -15760,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1354</v>
       </c>
@@ -15775,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1356</v>
       </c>
@@ -15790,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1358</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1360</v>
       </c>
@@ -15820,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1362</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1364</v>
       </c>
@@ -15850,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1366</v>
       </c>
@@ -15865,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1368</v>
       </c>
@@ -15880,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1370</v>
       </c>
@@ -15895,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1372</v>
       </c>
@@ -15910,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1374</v>
       </c>
@@ -15925,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1376</v>
       </c>
@@ -15940,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1378</v>
       </c>
@@ -15955,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1380</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1382</v>
       </c>
@@ -15985,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1384</v>
       </c>
@@ -16000,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1386</v>
       </c>
@@ -16015,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1388</v>
       </c>
@@ -16030,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1390</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1392</v>
       </c>
@@ -16060,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1394</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1396</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1398</v>
       </c>
@@ -16105,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1400</v>
       </c>
@@ -16120,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1402</v>
       </c>
@@ -16135,7 +16137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1404</v>
       </c>
@@ -16150,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1406</v>
       </c>
@@ -16165,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1408</v>
       </c>
@@ -16180,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1410</v>
       </c>
@@ -16195,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1412</v>
       </c>
@@ -16210,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1414</v>
       </c>
@@ -16225,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1416</v>
       </c>
@@ -16243,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1418</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1420</v>
       </c>
@@ -16276,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1422</v>
       </c>
@@ -16291,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1424</v>
       </c>
@@ -16306,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1426</v>
       </c>
@@ -16321,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1428</v>
       </c>
@@ -16336,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1430</v>
       </c>
@@ -16351,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1432</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1434</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1436</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1438</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1440</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1442</v>
       </c>
@@ -16441,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1444</v>
       </c>
@@ -16456,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1446</v>
       </c>
@@ -16471,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1448</v>
       </c>
@@ -16486,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1450</v>
       </c>
@@ -16501,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1452</v>
       </c>
@@ -16516,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1454</v>
       </c>
@@ -16531,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1456</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1458</v>
       </c>
@@ -16561,7 +16563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1460</v>
       </c>
@@ -16576,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1462</v>
       </c>
@@ -16591,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1464</v>
       </c>
@@ -16606,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1466</v>
       </c>
@@ -16621,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1468</v>
       </c>
@@ -16636,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1470</v>
       </c>
@@ -16651,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1472</v>
       </c>
@@ -16666,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1474</v>
       </c>
@@ -16681,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1476</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1478</v>
       </c>
@@ -16711,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1480</v>
       </c>
@@ -16726,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1482</v>
       </c>
@@ -16741,7 +16743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1484</v>
       </c>
@@ -16756,7 +16758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1486</v>
       </c>
@@ -16771,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1488</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1490</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1492</v>
       </c>
@@ -16819,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1494</v>
       </c>
@@ -16834,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1496</v>
       </c>
@@ -16849,7 +16851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1498</v>
       </c>
@@ -16864,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1500</v>
       </c>
@@ -16879,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1502</v>
       </c>
@@ -16894,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1504</v>
       </c>
@@ -16909,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1506</v>
       </c>
@@ -16924,7 +16926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1508</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1510</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1512</v>
       </c>
@@ -16969,7 +16971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1514</v>
       </c>
@@ -16987,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1516</v>
       </c>
@@ -17002,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1518</v>
       </c>
@@ -17017,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1520</v>
       </c>
@@ -17032,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1522</v>
       </c>
@@ -17047,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1524</v>
       </c>
@@ -17062,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1526</v>
       </c>
@@ -17077,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1528</v>
       </c>
@@ -17092,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1530</v>
       </c>
@@ -17107,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1532</v>
       </c>
@@ -17122,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1534</v>
       </c>
@@ -17137,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1536</v>
       </c>
@@ -17152,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1538</v>
       </c>
@@ -17170,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1540</v>
       </c>
@@ -17185,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1542</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1544</v>
       </c>
@@ -17215,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1546</v>
       </c>
@@ -17230,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1548</v>
       </c>
@@ -17245,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1549</v>
       </c>
@@ -17263,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1551</v>
       </c>
@@ -17278,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1553</v>
       </c>
@@ -17293,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1555</v>
       </c>
@@ -17308,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1557</v>
       </c>
@@ -17323,7 +17325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1559</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1561</v>
       </c>
@@ -17353,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1563</v>
       </c>
@@ -17368,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1565</v>
       </c>
@@ -17383,7 +17385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1567</v>
       </c>
@@ -17401,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1569</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1571</v>
       </c>
@@ -17437,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1573</v>
       </c>
@@ -17452,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1575</v>
       </c>
@@ -17467,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1577</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1579</v>
       </c>
@@ -17497,7 +17499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1581</v>
       </c>
@@ -17512,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1583</v>
       </c>
@@ -17527,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1584</v>
       </c>
@@ -17542,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1586</v>
       </c>
@@ -17560,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1588</v>
       </c>
@@ -17575,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1590</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1592</v>
       </c>
@@ -17605,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1594</v>
       </c>
@@ -17620,7 +17622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1596</v>
       </c>
@@ -17635,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1598</v>
       </c>
@@ -17653,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1600</v>
       </c>
@@ -17668,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1602</v>
       </c>
@@ -17683,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1604</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1606</v>
       </c>
@@ -17713,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1608</v>
       </c>
@@ -17728,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1610</v>
       </c>
@@ -17743,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1612</v>
       </c>
@@ -17758,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1614</v>
       </c>
@@ -17773,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1616</v>
       </c>
@@ -17788,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1618</v>
       </c>
@@ -17803,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1620</v>
       </c>
@@ -17821,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1622</v>
       </c>
@@ -17836,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1624</v>
       </c>
@@ -17851,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1626</v>
       </c>
@@ -17870,16 +17872,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E819" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E819" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
